--- a/assets/GlobalSearch.xlsx
+++ b/assets/GlobalSearch.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B25E65-F543-404C-AC7F-88527948B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E811A936-08F6-4946-A349-E38C8485BAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
+    <workbookView xWindow="-28920" yWindow="-4620" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="CERT" sheetId="1" r:id="rId1"/>
+    <sheet name="STAGE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>mackysantiago@hotmail.com</t>
   </si>
@@ -86,6 +87,24 @@
   </si>
   <si>
     <t>CU</t>
+  </si>
+  <si>
+    <t>ECDO_CU</t>
+  </si>
+  <si>
+    <t>ECDO_PracticeDelegate</t>
+  </si>
+  <si>
+    <t>ECDO_RS_allregions</t>
+  </si>
+  <si>
+    <t>BlueCindy</t>
+  </si>
+  <si>
+    <t>200;2000;perez;lopez;nguyen</t>
+  </si>
+  <si>
+    <t>200;2001;rodriguez;jen</t>
   </si>
 </sst>
 </file>
@@ -450,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14703E59-488A-43B9-9E01-8B3A599D84DF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,4 +551,68 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C9AFDF-0CB7-4092-81BF-81E7CA4F913A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/GlobalSearch.xlsx
+++ b/assets/GlobalSearch.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E811A936-08F6-4946-A349-E38C8485BAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1326A416-60DA-4855-A695-DE8B6C8115BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4620" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="CERT" sheetId="1" r:id="rId1"/>
-    <sheet name="STAGE" sheetId="2" r:id="rId2"/>
+    <sheet name="PROD" sheetId="3" r:id="rId2"/>
+    <sheet name="STAGE" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>mackysantiago@hotmail.com</t>
   </si>
@@ -470,13 +471,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -554,10 +555,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66104A0C-A7E3-408A-A35F-25B1B41DC26F}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{C74A07AC-DFA5-489B-B3C1-4AC845AE2090}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C9AFDF-0CB7-4092-81BF-81E7CA4F913A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>

--- a/assets/GlobalSearch.xlsx
+++ b/assets/GlobalSearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1326A416-60DA-4855-A695-DE8B6C8115BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB911D7-A4AA-4A9B-9757-34299FCEFE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>mackysantiago@hotmail.com</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>200;2001;rodriguez;jen</t>
+  </si>
+  <si>
+    <t>200;2000;deb;gar</t>
+  </si>
+  <si>
+    <t>mar;gar;her;martinez;per;far;sar</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -607,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>

--- a/assets/GlobalSearch.xlsx
+++ b/assets/GlobalSearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB911D7-A4AA-4A9B-9757-34299FCEFE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4817CA-B87E-41A0-B851-FD21AD17566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="CERT" sheetId="1" r:id="rId1"/>
@@ -105,13 +105,13 @@
     <t>200;2000;perez;lopez;nguyen</t>
   </si>
   <si>
-    <t>200;2001;rodriguez;jen</t>
-  </si>
-  <si>
     <t>200;2000;deb;gar</t>
   </si>
   <si>
     <t>mar;gar;her;martinez;per;far;sar</t>
+  </si>
+  <si>
+    <t>200;2001;rodriguez;jen;far;gar;3229</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66104A0C-A7E3-408A-A35F-25B1B41DC26F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -613,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C9AFDF-0CB7-4092-81BF-81E7CA4F913A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,46 +665,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/assets/GlobalSearch.xlsx
+++ b/assets/GlobalSearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4817CA-B87E-41A0-B851-FD21AD17566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2CBFBD-94CE-4E36-ACE2-AC0FE8B83B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>mackysantiago@hotmail.com</t>
   </si>
@@ -102,16 +102,22 @@
     <t>BlueCindy</t>
   </si>
   <si>
-    <t>200;2000;perez;lopez;nguyen</t>
-  </si>
-  <si>
     <t>200;2000;deb;gar</t>
   </si>
   <si>
     <t>mar;gar;her;martinez;per;far;sar</t>
   </si>
   <si>
-    <t>200;2001;rodriguez;jen;far;gar;3229</t>
+    <t>200;2001;rodriguez;jen;far;gar;3229;Nikolaevsk Physicians Organisation;Bedford, Annetta;1KS706N</t>
+  </si>
+  <si>
+    <t>rodriguez;jen;perez;lopez;nguyen;Griffiths, Rachell;Cornell Medical Group;34-82-G87</t>
+  </si>
+  <si>
+    <t>200;2000;perez;lopez;nguyen;B-EZ-S5R</t>
+  </si>
+  <si>
+    <t>mar;gar;STEVEN;Deb;juan;Nikolaevsk Physicians Organisation;Bedford, Annetta;1KS706N</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -613,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -654,57 +660,57 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="2" max="2" width="107.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/assets/GlobalSearch.xlsx
+++ b/assets/GlobalSearch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2CBFBD-94CE-4E36-ACE2-AC0FE8B83B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9008528-408B-43D5-81AB-D9FDD5C6CAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
   </bookViews>
@@ -90,12 +90,6 @@
     <t>CU</t>
   </si>
   <si>
-    <t>ECDO_CU</t>
-  </si>
-  <si>
-    <t>ECDO_PracticeDelegate</t>
-  </si>
-  <si>
     <t>ECDO_RS_allregions</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>mar;gar;STEVEN;Deb;juan;Nikolaevsk Physicians Organisation;Bedford, Annetta;1KS706N</t>
+  </si>
+  <si>
+    <t>avijit.enlighten1</t>
+  </si>
+  <si>
+    <t>arka.oa</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -671,10 +671,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -704,17 +704,20 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://stage.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=14804257&amp;forPersonCustId=1500" xr:uid="{1E22A9DA-5C94-4B56-89F3-D358BB218495}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId2"/>
 </worksheet>
 </file>
--- a/assets/GlobalSearch.xlsx
+++ b/assets/GlobalSearch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9008528-408B-43D5-81AB-D9FDD5C6CAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A906C9-8530-4EC6-9C0B-D95DBA445F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="CERT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>mackysantiago@hotmail.com</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>arka.oa</t>
+  </si>
+  <si>
+    <t>andrea.decoro</t>
+  </si>
+  <si>
+    <t>Amanda.Hoting.Ip</t>
+  </si>
+  <si>
+    <t>GNP_Aichii</t>
+  </si>
+  <si>
+    <t>mar;gar;her;martinez;per;200;2001;Dav</t>
+  </si>
+  <si>
+    <t>jose;alva;juan;STEVEN;Deb;ARLENE;200;2001;Dav</t>
   </si>
 </sst>
 </file>
@@ -480,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14703E59-488A-43B9-9E01-8B3A599D84DF}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,11 +573,48 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{0725C163-F941-48BC-B22A-7A273C1F671F}"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=4555457&amp;forPersonCustId=150" xr:uid="{3AD77DA4-F3CC-4B9A-8CD2-BD4FCC88BCA4}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27896534&amp;forPersonCustId=150" xr:uid="{A8457DF9-1D9B-4CA9-90E9-18C3EEEC0D47}"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=41869449&amp;forPersonCustId=150" xr:uid="{E5E619A5-1D53-495D-A949-99863A7FE7D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -659,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C9AFDF-0CB7-4092-81BF-81E7CA4F913A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/assets/GlobalSearch.xlsx
+++ b/assets/GlobalSearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A906C9-8530-4EC6-9C0B-D95DBA445F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7FC9D9-DF38-41EA-AAB4-FADF4B14C6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{13F75E1B-F941-40F1-A5D6-AF3FAD1EBAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="CERT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>mackysantiago@hotmail.com</t>
   </si>
@@ -94,12 +94,6 @@
   </si>
   <si>
     <t>BlueCindy</t>
-  </si>
-  <si>
-    <t>200;2000;deb;gar</t>
-  </si>
-  <si>
-    <t>mar;gar;her;martinez;per;far;sar</t>
   </si>
   <si>
     <t>200;2001;rodriguez;jen;far;gar;3229;Nikolaevsk Physicians Organisation;Bedford, Annetta;1KS706N</t>
@@ -497,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14703E59-488A-43B9-9E01-8B3A599D84DF}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,10 +569,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -586,10 +580,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -597,7 +591,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -620,10 +614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66104A0C-A7E3-408A-A35F-25B1B41DC26F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -671,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -699,9 +693,45 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{C74A07AC-DFA5-489B-B3C1-4AC845AE2090}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{ABF86FE0-5B8B-4DB7-91D5-560ADD6BA26F}"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=4555457&amp;forPersonCustId=150" xr:uid="{AB478337-9100-44E3-894B-735E8FA12CE1}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27896534&amp;forPersonCustId=150" xr:uid="{2D300595-48E7-45E8-856A-38CCC7D98102}"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=41869449&amp;forPersonCustId=150" xr:uid="{5625F980-F368-4701-B677-AA153736E811}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -723,10 +753,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -734,10 +764,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -748,7 +778,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -759,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
